--- a/XLSX/MonsterTable.xlsx
+++ b/XLSX/MonsterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528592A5-1B9F-49EB-9ED4-6C9D388B74AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC4236-2F6E-47C1-BA06-EDC18EC17F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Monster" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,21 @@
       </rPr>
       <t>유저 HP 감소량</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MooveSpeed</t>
+  </si>
+  <si>
+    <t>MooveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,9 +721,10 @@
     <col min="14" max="15" width="9.375" customWidth="1"/>
     <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -760,8 +776,11 @@
       <c r="Q1" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -790,10 +809,10 @@
         <v>40</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>40</v>
@@ -802,7 +821,7 @@
         <v>40</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>40</v>
@@ -813,8 +832,11 @@
       <c r="Q2" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -866,8 +888,11 @@
       <c r="Q3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -919,8 +944,11 @@
       <c r="Q4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -972,8 +1000,11 @@
       <c r="Q5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1025,8 +1056,11 @@
       <c r="Q6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1078,8 +1112,11 @@
       <c r="Q7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1131,8 +1168,11 @@
       <c r="Q8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1183,6 +1223,9 @@
       </c>
       <c r="Q9" t="s">
         <v>50</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1193,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40697F6B-D6AA-4A3C-BC30-5A6A92BE5A91}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1387,6 +1430,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>

--- a/XLSX/MonsterTable.xlsx
+++ b/XLSX/MonsterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC4236-2F6E-47C1-BA06-EDC18EC17F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E730C0-AD66-4079-B0C0-BB7838F0AC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="33180" yWindow="5040" windowWidth="21600" windowHeight="12645" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Monster" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum&lt;AttackType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UsePoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,14 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일반 전사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +206,6 @@
   </si>
   <si>
     <t>/Game/Asset/UI/Texture/Icon/T_icon_36.T_icon_36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asset&lt;UTexturte2D&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -267,6 +251,30 @@
   </si>
   <si>
     <t>;이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum&lt;AttackType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset&lt;UTexturte2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,12 +375,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -383,6 +385,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,7 +710,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -715,125 +723,126 @@
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.75" customWidth="1"/>
-    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.375" customWidth="1"/>
-    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.75" customWidth="1"/>
+    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" customWidth="1"/>
+    <col min="16" max="16" width="9.375" customWidth="1"/>
+    <col min="17" max="17" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="47.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>58</v>
+      <c r="K2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -850,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -880,16 +889,16 @@
         <v>1</v>
       </c>
       <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>5</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -906,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -936,16 +945,16 @@
         <v>1</v>
       </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>5</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -962,10 +971,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -992,16 +1001,16 @@
         <v>1</v>
       </c>
       <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>8</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1018,10 +1027,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1048,16 +1057,16 @@
         <v>1</v>
       </c>
       <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>8</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1074,10 +1083,10 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
         <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -1092,11 +1101,11 @@
         <v>1</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
         <v>1</v>
       </c>
@@ -1104,16 +1113,16 @@
         <v>1</v>
       </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>12</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1130,10 +1139,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1148,11 +1157,11 @@
         <v>1</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
         <v>1</v>
       </c>
@@ -1160,16 +1169,16 @@
         <v>1</v>
       </c>
       <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>12</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1186,10 +1195,10 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1204,11 +1213,11 @@
         <v>1</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
         <v>1</v>
       </c>
@@ -1216,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>50</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1249,193 +1258,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>99</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>53</v>
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>55</v>
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/MonsterTable.xlsx
+++ b/XLSX/MonsterTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E730C0-AD66-4079-B0C0-BB7838F0AC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36749192-C057-4601-B6B4-BEE39FA5C5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33180" yWindow="5040" windowWidth="21600" windowHeight="12645" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Monster" sheetId="1" r:id="rId1"/>
@@ -262,19 +262,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum&lt;AttackType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asset&lt;UTexturte2D&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset&lt;UTexture2D&gt;</t>
+  </si>
+  <si>
+    <t>Enum&lt;EAttackType&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,13 +383,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,7 +709,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -733,7 +732,7 @@
     <col min="18" max="18" width="47.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -756,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -786,63 +785,63 @@
         <v>50</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1264,10 +1263,10 @@
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">

--- a/XLSX/MonsterTable.xlsx
+++ b/XLSX/MonsterTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36749192-C057-4601-B6B4-BEE39FA5C5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF8E7DF-0FC8-4B2D-9F1B-1BC82BC25828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,14 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;INDEX 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;공격 사거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,29 +168,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일반 전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어 전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에픽 궁수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스페셜 마법사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MeleeAttack</t>
-  </si>
-  <si>
-    <t>RangeAttack</t>
-  </si>
-  <si>
-    <t>SupportAttack</t>
   </si>
   <si>
     <t>/Game/Asset/UI/Texture/Icon/T_icon_36.T_icon_36</t>
@@ -274,6 +240,18 @@
   </si>
   <si>
     <t>Enum&lt;EAttackType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class&lt;AStageMonsterUnit&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,35 +684,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.75" customWidth="1"/>
-    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.125" customWidth="1"/>
-    <col min="16" max="16" width="9.375" customWidth="1"/>
-    <col min="17" max="17" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.75" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
+    <col min="15" max="15" width="9.375" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="90.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -746,131 +725,131 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>999999</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -888,352 +867,13 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>101</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>101</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>8</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>101</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>8</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>102</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>12</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>102</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>15</v>
-      </c>
-      <c r="I8">
-        <v>50</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>102</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>50</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +887,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1257,71 +897,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
       <c r="F1" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1329,41 +965,41 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3">
         <v>99</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1371,79 +1007,79 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/MonsterTable.xlsx
+++ b/XLSX/MonsterTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF8E7DF-0FC8-4B2D-9F1B-1BC82BC25828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267038A8-1A14-4008-8088-285395597AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Monster" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,13 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MooveSpeed</t>
-  </si>
-  <si>
-    <t>MooveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,6 +245,10 @@
   </si>
   <si>
     <t>Class&lt;AStageMonsterUnit&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovementSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -701,7 +698,7 @@
     <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="7.75" customWidth="1"/>
     <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
@@ -713,7 +710,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -731,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -740,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -761,10 +758,10 @@
         <v>41</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -778,10 +775,10 @@
         <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>36</v>
@@ -793,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>36</v>
@@ -808,7 +805,7 @@
         <v>36</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>36</v>
@@ -817,10 +814,10 @@
         <v>36</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -834,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -886,13 +883,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40697F6B-D6AA-4A3C-BC30-5A6A92BE5A91}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -906,7 +903,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -1011,75 +1008,75 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
+      <c r="A10" t="s">
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/MonsterTable.xlsx
+++ b/XLSX/MonsterTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267038A8-1A14-4008-8088-285395597AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B212D741-C7EE-4676-AAB8-9F3B810A6C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Monster" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,10 @@
   </si>
   <si>
     <t>MovementSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprint/Unit/Dragon/TestDragon/Unit_TestDragon.Unit_TestDragon_C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -869,6 +873,9 @@
       <c r="P3">
         <v>1</v>
       </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
       <c r="R3" t="s">
         <v>38</v>
       </c>
@@ -883,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40697F6B-D6AA-4A3C-BC30-5A6A92BE5A91}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/XLSX/MonsterTable.xlsx
+++ b/XLSX/MonsterTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B212D741-C7EE-4676-AAB8-9F3B810A6C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AF88C0-A211-43D7-AAB1-3EE1A7242BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>/Game/Blueprint/Unit/Dragon/TestDragon/Unit_TestDragon.Unit_TestDragon_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset&lt;UBehaviorTree&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprint/Stage/AI/BT_Monster.BT_Monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -710,9 +722,10 @@
     <col min="15" max="15" width="9.375" customWidth="1"/>
     <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="90.625" customWidth="1"/>
+    <col min="19" max="19" width="80.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -767,8 +780,11 @@
       <c r="R1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -823,8 +839,11 @@
       <c r="R2" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>999999</v>
       </c>
@@ -878,6 +897,9 @@
       </c>
       <c r="R3" t="s">
         <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/MonsterTable.xlsx
+++ b/XLSX/MonsterTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AF88C0-A211-43D7-AAB1-3EE1A7242BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A8D7FF-7808-472E-A12E-3A62B04046FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -700,7 +700,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
